--- a/Dokumentacija/Šifarnici/Šifarnik područnih ureda porezne uprave_sve.xlsx
+++ b/Dokumentacija/Šifarnici/Šifarnik područnih ureda porezne uprave_sve.xlsx
@@ -35,12 +35,12 @@
     <definedName name="zagreb" localSheetId="0">Ispostave!$B$2</definedName>
     <definedName name="zavelike" localSheetId="0">Ispostave!$B$21</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="335">
   <si>
     <t>Zagreb</t>
   </si>
@@ -1051,7 +1051,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,13 +1067,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1088,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1099,6 +1118,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1403,7 +1434,7 @@
   <dimension ref="A1:B230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,138 +1452,138 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>48</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="8">
         <v>52</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>51</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="6">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>42</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1565,15 +1596,15 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="6">
         <v>10</v>
       </c>
       <c r="B21" t="s">
@@ -1958,374 +1989,374 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="7">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="7">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="7">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="7">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="7">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="7">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="7">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="7">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="7">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="7">
+        <v>10</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="7">
+        <v>10</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="7">
+        <v>10</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="7">
+        <v>10</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="7">
+        <v>10</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="7">
+        <v>10</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="7">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="7">
         <v>49</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="7">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="7">
         <v>49</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="7">
         <v>49</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="7">
         <v>49</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="7">
         <v>49</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>49</v>
+      <c r="A31" s="7">
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>49</v>
+      <c r="A32" s="7">
+        <v>44</v>
       </c>
       <c r="B32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>49</v>
+      <c r="A33" s="7">
+        <v>44</v>
       </c>
       <c r="B33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>49</v>
+      <c r="A34" s="7">
+        <v>44</v>
       </c>
       <c r="B34" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>49</v>
+      <c r="A35" s="7">
+        <v>44</v>
       </c>
       <c r="B35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>49</v>
+      <c r="A36" s="7">
+        <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>49</v>
+      <c r="A37" s="7">
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>49</v>
+      <c r="A38" s="7">
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>49</v>
+      <c r="A39" s="7">
+        <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>49</v>
+      <c r="A40" s="7">
+        <v>47</v>
       </c>
       <c r="B40" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>49</v>
+      <c r="A41" s="7">
+        <v>47</v>
       </c>
       <c r="B41" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>49</v>
+      <c r="A42" s="7">
+        <v>47</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>49</v>
+      <c r="A43" s="7">
+        <v>47</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>49</v>
+      <c r="A44" s="7">
+        <v>47</v>
       </c>
       <c r="B44" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>49</v>
+      <c r="A45" s="7">
+        <v>47</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>49</v>
+      <c r="A46" s="7">
+        <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="7">
         <v>42</v>
       </c>
       <c r="B47" t="s">
@@ -2333,7 +2364,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="7">
         <v>42</v>
       </c>
       <c r="B48" t="s">
@@ -2341,7 +2372,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="7">
         <v>42</v>
       </c>
       <c r="B49" t="s">
@@ -2349,7 +2380,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="7">
         <v>42</v>
       </c>
       <c r="B50" t="s">
@@ -2357,7 +2388,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="7">
         <v>42</v>
       </c>
       <c r="B51" t="s">
@@ -2365,7 +2396,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="7">
         <v>48</v>
       </c>
       <c r="B52" t="s">
@@ -2373,7 +2404,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="7">
         <v>48</v>
       </c>
       <c r="B53" t="s">
@@ -2381,7 +2412,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="7">
         <v>48</v>
       </c>
       <c r="B54" t="s">
@@ -2389,7 +2420,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="7">
         <v>48</v>
       </c>
       <c r="B55" t="s">
@@ -2397,7 +2428,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="7">
         <v>43</v>
       </c>
       <c r="B56" t="s">
@@ -2405,7 +2436,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="7">
         <v>43</v>
       </c>
       <c r="B57" t="s">
@@ -2413,7 +2444,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="7">
         <v>43</v>
       </c>
       <c r="B58" t="s">
@@ -2421,7 +2452,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="7">
         <v>43</v>
       </c>
       <c r="B59" t="s">
@@ -2429,7 +2460,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="7">
         <v>43</v>
       </c>
       <c r="B60" t="s">
@@ -2437,7 +2468,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="7">
         <v>43</v>
       </c>
       <c r="B61" t="s">
@@ -2445,7 +2476,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="7">
         <v>51</v>
       </c>
       <c r="B62" t="s">
@@ -2453,7 +2484,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="7">
         <v>51</v>
       </c>
       <c r="B63" t="s">
@@ -2461,7 +2492,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="7">
         <v>51</v>
       </c>
       <c r="B64" t="s">
@@ -2469,7 +2500,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="7">
         <v>51</v>
       </c>
       <c r="B65" t="s">
@@ -2477,7 +2508,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="7">
         <v>51</v>
       </c>
       <c r="B66" t="s">
@@ -2485,7 +2516,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="7">
         <v>51</v>
       </c>
       <c r="B67" t="s">
@@ -2493,7 +2524,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="7">
         <v>51</v>
       </c>
       <c r="B68" t="s">
@@ -2501,7 +2532,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="7">
         <v>51</v>
       </c>
       <c r="B69" t="s">
@@ -2509,7 +2540,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="7">
         <v>51</v>
       </c>
       <c r="B70" t="s">
@@ -2517,7 +2548,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="7">
         <v>51</v>
       </c>
       <c r="B71" t="s">
@@ -2525,7 +2556,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="7">
         <v>53</v>
       </c>
       <c r="B72" t="s">
@@ -2533,7 +2564,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="7">
         <v>53</v>
       </c>
       <c r="B73" t="s">
@@ -2541,7 +2572,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="7">
         <v>53</v>
       </c>
       <c r="B74" t="s">
@@ -2549,7 +2580,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="7">
         <v>53</v>
       </c>
       <c r="B75" t="s">
@@ -2557,7 +2588,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="7">
         <v>53</v>
       </c>
       <c r="B76" t="s">
@@ -2565,7 +2596,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="7">
         <v>53</v>
       </c>
       <c r="B77" t="s">
@@ -2573,7 +2604,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="7">
         <v>33</v>
       </c>
       <c r="B78" t="s">
@@ -2581,7 +2612,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="7">
         <v>33</v>
       </c>
       <c r="B79" t="s">
@@ -2589,7 +2620,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="7">
         <v>33</v>
       </c>
       <c r="B80" t="s">
@@ -2597,7 +2628,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="7">
         <v>33</v>
       </c>
       <c r="B81" t="s">
@@ -2605,7 +2636,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="7">
         <v>34</v>
       </c>
       <c r="B82" t="s">
@@ -2613,7 +2644,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="7">
         <v>34</v>
       </c>
       <c r="B83" t="s">
@@ -2621,7 +2652,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="7">
         <v>34</v>
       </c>
       <c r="B84" t="s">
@@ -2629,7 +2660,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="7">
         <v>35</v>
       </c>
       <c r="B85" t="s">
@@ -2637,7 +2668,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="7">
         <v>35</v>
       </c>
       <c r="B86" t="s">
@@ -2645,7 +2676,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="7">
         <v>35</v>
       </c>
       <c r="B87" t="s">
@@ -2653,7 +2684,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="7">
         <v>35</v>
       </c>
       <c r="B88" t="s">
@@ -2661,7 +2692,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="7">
         <v>23</v>
       </c>
       <c r="B89" t="s">
@@ -2669,7 +2700,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="7">
         <v>23</v>
       </c>
       <c r="B90" t="s">
@@ -2677,7 +2708,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="7">
         <v>23</v>
       </c>
       <c r="B91" t="s">
@@ -2685,7 +2716,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="7">
         <v>23</v>
       </c>
       <c r="B92" t="s">
@@ -2693,7 +2724,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="7">
         <v>23</v>
       </c>
       <c r="B93" t="s">
@@ -2701,7 +2732,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="7">
         <v>23</v>
       </c>
       <c r="B94" t="s">
@@ -2709,7 +2740,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="7">
         <v>23</v>
       </c>
       <c r="B95" t="s">
@@ -2717,7 +2748,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="7">
         <v>31</v>
       </c>
       <c r="B96" t="s">
@@ -2725,7 +2756,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="7">
         <v>31</v>
       </c>
       <c r="B97" t="s">
@@ -2733,7 +2764,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="7">
         <v>31</v>
       </c>
       <c r="B98" t="s">
@@ -2741,7 +2772,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="7">
         <v>31</v>
       </c>
       <c r="B99" t="s">
@@ -2749,7 +2780,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="7">
         <v>31</v>
       </c>
       <c r="B100" t="s">
@@ -2757,7 +2788,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="7">
         <v>31</v>
       </c>
       <c r="B101" t="s">
@@ -2765,7 +2796,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="7">
         <v>31</v>
       </c>
       <c r="B102" t="s">
@@ -2773,7 +2804,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="7">
         <v>22</v>
       </c>
       <c r="B103" t="s">
@@ -2781,7 +2812,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="7">
         <v>22</v>
       </c>
       <c r="B104" t="s">
@@ -2789,7 +2820,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="7">
         <v>22</v>
       </c>
       <c r="B105" t="s">
@@ -2797,7 +2828,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="7">
         <v>22</v>
       </c>
       <c r="B106" t="s">
@@ -2805,47 +2836,47 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>22</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="A107" s="7">
+        <v>32</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>22</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="A108" s="7">
+        <v>32</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>22</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="A109" s="7">
+        <v>32</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>22</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="A110" s="7">
+        <v>32</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>22</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="A111" s="7">
+        <v>32</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="7">
         <v>21</v>
       </c>
       <c r="B112" t="s">
@@ -2853,7 +2884,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="7">
         <v>21</v>
       </c>
       <c r="B113" t="s">
@@ -2861,7 +2892,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="7">
         <v>21</v>
       </c>
       <c r="B114" t="s">
@@ -2869,7 +2900,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="7">
         <v>21</v>
       </c>
       <c r="B115" t="s">
@@ -2877,7 +2908,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="7">
         <v>21</v>
       </c>
       <c r="B116" t="s">
@@ -2885,7 +2916,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="7">
         <v>21</v>
       </c>
       <c r="B117" t="s">
@@ -2893,7 +2924,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="7">
         <v>21</v>
       </c>
       <c r="B118" t="s">
@@ -2901,7 +2932,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="7">
         <v>21</v>
       </c>
       <c r="B119" t="s">
@@ -2909,7 +2940,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="7">
         <v>21</v>
       </c>
       <c r="B120" t="s">
@@ -2917,7 +2948,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="7">
         <v>21</v>
       </c>
       <c r="B121" t="s">
@@ -2925,7 +2956,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="7">
         <v>21</v>
       </c>
       <c r="B122" t="s">
@@ -2933,7 +2964,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="7">
         <v>21</v>
       </c>
       <c r="B123" t="s">
@@ -2941,7 +2972,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="7">
         <v>21</v>
       </c>
       <c r="B124" t="s">
@@ -2949,7 +2980,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="7">
         <v>52</v>
       </c>
       <c r="B125" t="s">
@@ -2957,7 +2988,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="7">
         <v>52</v>
       </c>
       <c r="B126" t="s">
@@ -2965,7 +2996,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="7">
         <v>52</v>
       </c>
       <c r="B127" t="s">
@@ -2973,7 +3004,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="7">
         <v>52</v>
       </c>
       <c r="B128" t="s">
@@ -2981,7 +3012,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="7">
         <v>52</v>
       </c>
       <c r="B129" t="s">
@@ -2989,7 +3020,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="7">
         <v>52</v>
       </c>
       <c r="B130" t="s">
@@ -2997,7 +3028,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="7">
         <v>52</v>
       </c>
       <c r="B131" t="s">
@@ -3005,7 +3036,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="7">
         <v>52</v>
       </c>
       <c r="B132" t="s">
@@ -3013,7 +3044,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="7">
         <v>20</v>
       </c>
       <c r="B133" t="s">
@@ -3021,7 +3052,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="7">
         <v>20</v>
       </c>
       <c r="B134" t="s">
@@ -3029,7 +3060,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="7">
         <v>20</v>
       </c>
       <c r="B135" t="s">
@@ -3037,7 +3068,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="7">
         <v>20</v>
       </c>
       <c r="B136" t="s">
@@ -3045,7 +3076,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="7">
         <v>20</v>
       </c>
       <c r="B137" t="s">
@@ -3053,7 +3084,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="7">
         <v>20</v>
       </c>
       <c r="B138" t="s">
@@ -3061,7 +3092,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="7">
         <v>40</v>
       </c>
       <c r="B139" t="s">
@@ -3069,7 +3100,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="7">
         <v>40</v>
       </c>
       <c r="B140" t="s">
@@ -3077,7 +3108,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="7">
         <v>40</v>
       </c>
       <c r="B141" t="s">
@@ -3085,7 +3116,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="7">
         <v>40</v>
       </c>
       <c r="B142" t="s">
@@ -3099,10 +3130,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3124,564 +3155,564 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3">
-        <v>3320</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="4">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3332</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="4">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3333</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3374</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" s="4">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3376</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="A6" s="4">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3389</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="A7" s="4">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3394</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="A8" s="4">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3">
-        <v>3401</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="A9" s="4">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3">
-        <v>3402</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>3403</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>3404</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3405</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3">
-        <v>3406</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3407</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>10</v>
-      </c>
-      <c r="B16" s="3">
-        <v>3408</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="A16" s="4">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>10</v>
-      </c>
-      <c r="B17" s="3">
-        <v>3409</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="A17" s="4">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3">
-        <v>3410</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="A18" s="4">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3">
-        <v>3411</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="A19" s="4">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3412</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="A20" s="4">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>10</v>
-      </c>
-      <c r="B21" s="3">
-        <v>3413</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="A21" s="4">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>10</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3428</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="A22" s="4">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="3">
-        <v>3318</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="4">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="3">
-        <v>3338</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="4">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="3">
-        <v>3345</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="4">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>20</v>
       </c>
-      <c r="B26" s="3">
-        <v>3349</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="4">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>20</v>
       </c>
-      <c r="B27" s="3">
-        <v>3418</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="4">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>21</v>
       </c>
-      <c r="B28" s="3">
-        <v>3305</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="4">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>21</v>
       </c>
-      <c r="B29" s="3">
-        <v>3329</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="4">
+        <v>28</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>21</v>
       </c>
-      <c r="B30" s="3">
-        <v>3330</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="4">
+        <v>29</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>21</v>
       </c>
-      <c r="B31" s="3">
-        <v>3347</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="4">
+        <v>30</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>21</v>
       </c>
-      <c r="B32" s="3">
-        <v>3357</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="4">
+        <v>31</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>21</v>
       </c>
-      <c r="B33" s="3">
-        <v>3377</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="4">
+        <v>32</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>21</v>
       </c>
-      <c r="B34" s="3">
-        <v>3385</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="4">
+        <v>33</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>21</v>
       </c>
-      <c r="B35" s="3">
-        <v>3392</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="4">
+        <v>34</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>21</v>
       </c>
-      <c r="B36" s="3">
-        <v>3397</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="4">
+        <v>35</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>21</v>
       </c>
-      <c r="B37" s="3">
-        <v>3419</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="4">
+        <v>36</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>21</v>
       </c>
-      <c r="B38" s="3">
-        <v>3420</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="4">
+        <v>37</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>21</v>
       </c>
-      <c r="B39" s="3">
-        <v>3421</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" s="4">
+        <v>38</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>22</v>
       </c>
-      <c r="B40" s="3">
-        <v>3317</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" s="4">
+        <v>39</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>22</v>
       </c>
-      <c r="B41" s="3">
-        <v>3336</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" s="4">
+        <v>40</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>22</v>
       </c>
-      <c r="B42" s="3">
-        <v>3383</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" s="4">
+        <v>41</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>22</v>
-      </c>
-      <c r="B43" s="3">
-        <v>3390</v>
-      </c>
-      <c r="C43" t="s">
-        <v>306</v>
+      <c r="A43" s="4">
+        <v>23</v>
+      </c>
+      <c r="B43" s="4">
+        <v>46</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>22</v>
-      </c>
-      <c r="B44" s="3">
-        <v>3398</v>
-      </c>
-      <c r="C44" t="s">
-        <v>15</v>
+      <c r="A44" s="4">
+        <v>23</v>
+      </c>
+      <c r="B44" s="4">
+        <v>47</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>22</v>
-      </c>
-      <c r="B45" s="3">
-        <v>3415</v>
-      </c>
-      <c r="C45" t="s">
-        <v>308</v>
+      <c r="A45" s="4">
+        <v>23</v>
+      </c>
+      <c r="B45" s="4">
+        <v>48</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>22</v>
-      </c>
-      <c r="B46" s="3">
-        <v>3425</v>
-      </c>
-      <c r="C46" t="s">
-        <v>307</v>
+      <c r="A46" s="4">
+        <v>23</v>
+      </c>
+      <c r="B46" s="4">
+        <v>49</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>23</v>
       </c>
-      <c r="B47" s="3">
-        <v>3302</v>
-      </c>
-      <c r="C47" t="s">
-        <v>295</v>
+      <c r="B47" s="4">
+        <v>50</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>23</v>
       </c>
-      <c r="B48" s="3">
-        <v>3303</v>
-      </c>
-      <c r="C48" t="s">
-        <v>294</v>
+      <c r="B48" s="4">
+        <v>51</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B49" s="3">
-        <v>3327</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B50" s="3">
-        <v>3355</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B51" s="3">
-        <v>3363</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B52" s="3">
-        <v>3400</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3689,10 +3720,10 @@
         <v>31</v>
       </c>
       <c r="B53" s="3">
-        <v>3301</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3700,538 +3731,538 @@
         <v>31</v>
       </c>
       <c r="B54" s="3">
-        <v>3316</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>31</v>
-      </c>
-      <c r="B55" s="3">
-        <v>3322</v>
-      </c>
-      <c r="C55" t="s">
-        <v>303</v>
+      <c r="A55" s="6">
+        <v>32</v>
+      </c>
+      <c r="B55" s="6">
+        <v>42</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>31</v>
-      </c>
-      <c r="B56" s="3">
-        <v>3350</v>
-      </c>
-      <c r="C56" t="s">
-        <v>300</v>
+      <c r="A56" s="6">
+        <v>32</v>
+      </c>
+      <c r="B56" s="6">
+        <v>43</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>31</v>
-      </c>
-      <c r="B57" s="3">
-        <v>3360</v>
-      </c>
-      <c r="C57" t="s">
-        <v>13</v>
+      <c r="A57" s="6">
+        <v>32</v>
+      </c>
+      <c r="B57" s="6">
+        <v>44</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>31</v>
-      </c>
-      <c r="B58" s="3">
-        <v>3387</v>
-      </c>
-      <c r="C58" t="s">
-        <v>302</v>
+      <c r="A58" s="6">
+        <v>32</v>
+      </c>
+      <c r="B58" s="6">
+        <v>45</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>33</v>
       </c>
-      <c r="B59" s="3">
-        <v>3359</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" s="4">
+        <v>58</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>33</v>
       </c>
-      <c r="B60" s="3">
-        <v>3368</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" s="4">
+        <v>59</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="4">
         <v>33</v>
       </c>
-      <c r="B61" s="3">
-        <v>3391</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" s="4">
+        <v>60</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62" s="4">
         <v>34</v>
       </c>
-      <c r="B62" s="3">
-        <v>3364</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" s="4">
+        <v>61</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="A63" s="4">
         <v>34</v>
       </c>
-      <c r="B63" s="3">
-        <v>3379</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" s="4">
+        <v>62</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="4">
         <v>35</v>
       </c>
-      <c r="B64" s="3">
-        <v>3351</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" s="4">
+        <v>63</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65" s="4">
         <v>35</v>
       </c>
-      <c r="B65" s="3">
-        <v>3380</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" s="4">
+        <v>64</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="4">
         <v>35</v>
       </c>
-      <c r="B66" s="3">
-        <v>3424</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" s="4">
+        <v>65</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67" s="4">
         <v>40</v>
       </c>
-      <c r="B67" s="3">
-        <v>3310</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" s="4">
+        <v>66</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68" s="4">
         <v>40</v>
       </c>
-      <c r="B68" s="3">
-        <v>3422</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" s="4">
+        <v>67</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69" s="4">
         <v>40</v>
       </c>
-      <c r="B69" s="3">
-        <v>3423</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" s="4">
+        <v>68</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>40</v>
-      </c>
-      <c r="B70" s="3">
-        <v>3422</v>
-      </c>
-      <c r="C70" t="s">
-        <v>331</v>
+      <c r="A70" s="4">
+        <v>42</v>
+      </c>
+      <c r="B70" s="4">
+        <v>70</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71" s="4">
         <v>42</v>
       </c>
-      <c r="B71" s="3">
-        <v>3331</v>
-      </c>
-      <c r="C71" t="s">
-        <v>267</v>
+      <c r="B71" s="4">
+        <v>71</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72" s="4">
         <v>42</v>
       </c>
-      <c r="B72" s="3">
-        <v>3346</v>
-      </c>
-      <c r="C72" t="s">
-        <v>268</v>
+      <c r="B72" s="4">
+        <v>72</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73" s="4">
         <v>42</v>
       </c>
-      <c r="B73" s="3">
-        <v>3353</v>
-      </c>
-      <c r="C73" t="s">
-        <v>269</v>
+      <c r="B73" s="4">
+        <v>73</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>42</v>
-      </c>
-      <c r="B74" s="3">
-        <v>3388</v>
-      </c>
-      <c r="C74" t="s">
-        <v>4</v>
+      <c r="A74" s="4">
+        <v>43</v>
+      </c>
+      <c r="B74" s="4">
+        <v>74</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="A75" s="4">
         <v>43</v>
       </c>
-      <c r="B75" s="3">
-        <v>3304</v>
-      </c>
-      <c r="C75" t="s">
-        <v>6</v>
+      <c r="B75" s="4">
+        <v>75</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76" s="4">
         <v>43</v>
       </c>
-      <c r="B76" s="3">
-        <v>3311</v>
-      </c>
-      <c r="C76" t="s">
-        <v>272</v>
+      <c r="B76" s="4">
+        <v>76</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+      <c r="A77" s="4">
         <v>43</v>
       </c>
-      <c r="B77" s="3">
-        <v>3312</v>
-      </c>
-      <c r="C77" t="s">
-        <v>273</v>
+      <c r="B77" s="4">
+        <v>77</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="A78" s="4">
         <v>43</v>
       </c>
-      <c r="B78" s="3">
-        <v>3324</v>
-      </c>
-      <c r="C78" t="s">
-        <v>274</v>
+      <c r="B78" s="4">
+        <v>78</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>43</v>
-      </c>
-      <c r="B79" s="3">
-        <v>3328</v>
-      </c>
-      <c r="C79" t="s">
-        <v>275</v>
+      <c r="A79" s="4">
+        <v>44</v>
+      </c>
+      <c r="B79" s="4">
+        <v>84</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+      <c r="A80" s="4">
+        <v>44</v>
+      </c>
+      <c r="B80" s="4">
+        <v>85</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>44</v>
+      </c>
+      <c r="B81" s="4">
+        <v>88</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>44</v>
+      </c>
+      <c r="B82" s="4">
+        <v>90</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>44</v>
+      </c>
+      <c r="B83" s="4">
+        <v>91</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>44</v>
+      </c>
+      <c r="B84" s="4">
+        <v>94</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>44</v>
+      </c>
+      <c r="B85" s="4">
+        <v>95</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>44</v>
+      </c>
+      <c r="B86" s="4">
+        <v>98</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>47</v>
+      </c>
+      <c r="B87" s="4">
+        <v>83</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>47</v>
+      </c>
+      <c r="B88" s="4">
+        <v>86</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>47</v>
+      </c>
+      <c r="B89" s="4">
+        <v>92</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>47</v>
+      </c>
+      <c r="B90" s="4">
+        <v>93</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>47</v>
+      </c>
+      <c r="B91" s="4">
+        <v>96</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>47</v>
+      </c>
+      <c r="B92" s="4">
+        <v>97</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
         <v>48</v>
       </c>
-      <c r="B80" s="3">
-        <v>3323</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B93" s="4">
+        <v>79</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
         <v>48</v>
       </c>
-      <c r="B81" s="3">
-        <v>3337</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B94" s="4">
+        <v>80</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
         <v>48</v>
       </c>
-      <c r="B82" s="3">
-        <v>3341</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B95" s="4">
+        <v>81</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
         <v>49</v>
       </c>
-      <c r="B83" s="3">
-        <v>3314</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B96" s="4">
+        <v>82</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
         <v>49</v>
       </c>
-      <c r="B84" s="3">
-        <v>3319</v>
-      </c>
-      <c r="C84" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+      <c r="B97" s="4">
+        <v>87</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
         <v>49</v>
       </c>
-      <c r="B85" s="3">
-        <v>3321</v>
-      </c>
-      <c r="C85" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="B98" s="4">
+        <v>89</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
         <v>49</v>
       </c>
-      <c r="B86" s="3">
-        <v>3325</v>
-      </c>
-      <c r="C86" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="B99" s="4">
+        <v>99</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
         <v>49</v>
       </c>
-      <c r="B87" s="3">
-        <v>3334</v>
-      </c>
-      <c r="C87" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="B100" s="4">
+        <v>100</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
         <v>49</v>
       </c>
-      <c r="B88" s="3">
-        <v>3335</v>
-      </c>
-      <c r="C88" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>49</v>
-      </c>
-      <c r="B89" s="3">
-        <v>3339</v>
-      </c>
-      <c r="C89" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>49</v>
-      </c>
-      <c r="B90" s="3">
-        <v>3340</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>49</v>
-      </c>
-      <c r="B91" s="3">
-        <v>3343</v>
-      </c>
-      <c r="C91" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
-        <v>49</v>
-      </c>
-      <c r="B92" s="3">
-        <v>3354</v>
-      </c>
-      <c r="C92" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
-        <v>49</v>
-      </c>
-      <c r="B93" s="3">
-        <v>3356</v>
-      </c>
-      <c r="C93" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>49</v>
-      </c>
-      <c r="B94" s="3">
-        <v>3362</v>
-      </c>
-      <c r="C94" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>49</v>
-      </c>
-      <c r="B95" s="3">
-        <v>3366</v>
-      </c>
-      <c r="C95" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
-        <v>49</v>
-      </c>
-      <c r="B96" s="3">
-        <v>3378</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>49</v>
-      </c>
-      <c r="B97" s="3">
-        <v>3381</v>
-      </c>
-      <c r="C97" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>49</v>
-      </c>
-      <c r="B98" s="3">
-        <v>3393</v>
-      </c>
-      <c r="C98" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>49</v>
-      </c>
-      <c r="B99" s="3">
-        <v>3396</v>
-      </c>
-      <c r="C99" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>49</v>
-      </c>
-      <c r="B100" s="3">
-        <v>3399</v>
-      </c>
-      <c r="C100" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <v>49</v>
-      </c>
-      <c r="B101" s="3">
-        <v>3414</v>
-      </c>
-      <c r="C101" t="s">
-        <v>254</v>
+      <c r="B101" s="4">
+        <v>101</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B102" s="3">
-        <v>3417</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -4239,10 +4270,10 @@
         <v>51</v>
       </c>
       <c r="B103" s="3">
-        <v>3308</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -4250,10 +4281,10 @@
         <v>51</v>
       </c>
       <c r="B104" s="3">
-        <v>3309</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -4261,10 +4292,10 @@
         <v>51</v>
       </c>
       <c r="B105" s="3">
-        <v>3313</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -4272,10 +4303,10 @@
         <v>51</v>
       </c>
       <c r="B106" s="3">
-        <v>3342</v>
+        <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -4283,10 +4314,10 @@
         <v>51</v>
       </c>
       <c r="B107" s="3">
-        <v>3358</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -4294,10 +4325,10 @@
         <v>51</v>
       </c>
       <c r="B108" s="3">
-        <v>3371</v>
+        <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>282</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -4305,10 +4336,10 @@
         <v>51</v>
       </c>
       <c r="B109" s="3">
-        <v>3372</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>283</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -4316,21 +4347,21 @@
         <v>51</v>
       </c>
       <c r="B110" s="3">
-        <v>3395</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B111" s="3">
-        <v>3416</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -4338,10 +4369,10 @@
         <v>52</v>
       </c>
       <c r="B112" s="3">
-        <v>3306</v>
+        <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -4349,10 +4380,10 @@
         <v>52</v>
       </c>
       <c r="B113" s="3">
-        <v>3307</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -4360,10 +4391,10 @@
         <v>52</v>
       </c>
       <c r="B114" s="3">
-        <v>3344</v>
+        <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>321</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -4371,10 +4402,10 @@
         <v>52</v>
       </c>
       <c r="B115" s="3">
-        <v>3365</v>
+        <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -4382,10 +4413,10 @@
         <v>52</v>
       </c>
       <c r="B116" s="3">
-        <v>3369</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -4393,21 +4424,21 @@
         <v>52</v>
       </c>
       <c r="B117" s="3">
-        <v>3370</v>
+        <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B118" s="3">
-        <v>3373</v>
+        <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -4415,10 +4446,10 @@
         <v>53</v>
       </c>
       <c r="B119" s="3">
-        <v>3315</v>
+        <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>284</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -4426,10 +4457,10 @@
         <v>53</v>
       </c>
       <c r="B120" s="3">
-        <v>3326</v>
+        <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -4437,10 +4468,10 @@
         <v>53</v>
       </c>
       <c r="B121" s="3">
-        <v>3361</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -4448,26 +4479,15 @@
         <v>53</v>
       </c>
       <c r="B122" s="3">
-        <v>3375</v>
+        <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
-        <v>53</v>
-      </c>
-      <c r="B123" s="3">
-        <v>3384</v>
-      </c>
-      <c r="C123" t="s">
         <v>285</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:C142">
-    <sortCondition ref="A1:A142"/>
+  <sortState ref="A2:C123">
+    <sortCondition ref="A2:A123"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
